--- a/combostructure.xlsx
+++ b/combostructure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e88bce0de02d0c11/Uni/2-1/Dev Project 1 - Tools ^0 Practices/RESTFull/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\RESTFull\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21333" windowHeight="8260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21336" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,16 +402,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.8203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1171875" customWidth="1"/>
+    <col min="2" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
